--- a/docs/電腦打字國小中文甲組決賽名冊.xlsx
+++ b/docs/電腦打字國小中文甲組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國小中文甲組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="205">
   <si>
     <t>序</t>
   </si>
@@ -45,190 +45,211 @@
     <t>電腦打字國小中文甲組</t>
   </si>
   <si>
-    <t>大甲區大甲國小</t>
-  </si>
-  <si>
-    <t>陳永烜</t>
-  </si>
-  <si>
-    <t>徐敏議</t>
-  </si>
-  <si>
-    <t>r80kf7</t>
-  </si>
-  <si>
-    <t>hpe62r6</t>
-  </si>
-  <si>
-    <t>大甲區文昌國小</t>
-  </si>
-  <si>
-    <t>卓政霆</t>
-  </si>
-  <si>
-    <t>謝俊異</t>
-  </si>
-  <si>
-    <t>nc65t7</t>
-  </si>
-  <si>
-    <t>y46cd2</t>
-  </si>
-  <si>
-    <t>彭廷軒</t>
-  </si>
-  <si>
-    <t>v58fr9</t>
-  </si>
-  <si>
-    <t>bj73k2</t>
-  </si>
-  <si>
-    <t>大雅區大明國小</t>
-  </si>
-  <si>
-    <t>張辛憶</t>
-  </si>
-  <si>
-    <t>周熙平</t>
-  </si>
-  <si>
-    <t>bjk72j4</t>
-  </si>
-  <si>
-    <t>fr93jk1</t>
-  </si>
-  <si>
-    <t>黃亮諭</t>
-  </si>
-  <si>
-    <t>my3h5</t>
-  </si>
-  <si>
-    <t>dxb97s2</t>
+    <t>大甲區日南國小</t>
+  </si>
+  <si>
+    <t>邱兆廷</t>
+  </si>
+  <si>
+    <t>李仲岳</t>
+  </si>
+  <si>
+    <t>cd81jk6</t>
+  </si>
+  <si>
+    <t>v76w7</t>
+  </si>
+  <si>
+    <t>大里區立新國小</t>
+  </si>
+  <si>
+    <t>彭翊洋</t>
+  </si>
+  <si>
+    <t>林文宗</t>
+  </si>
+  <si>
+    <t>ncd60v8</t>
+  </si>
+  <si>
+    <t>f62xb3</t>
+  </si>
+  <si>
+    <t>大里區美群國小</t>
+  </si>
+  <si>
+    <t>林丞婕</t>
+  </si>
+  <si>
+    <t>黃紹維</t>
+  </si>
+  <si>
+    <t>bj8wh3</t>
+  </si>
+  <si>
+    <t>etv19rs9</t>
+  </si>
+  <si>
+    <t>吳睿恩</t>
+  </si>
+  <si>
+    <t>s80gw2</t>
+  </si>
+  <si>
+    <t>dx66f2</t>
+  </si>
+  <si>
+    <t>張璽</t>
+  </si>
+  <si>
+    <t>g73cd8</t>
+  </si>
+  <si>
+    <t>ygw20c8</t>
+  </si>
+  <si>
+    <t>大里區瑞城國小</t>
+  </si>
+  <si>
+    <t>李承原</t>
+  </si>
+  <si>
+    <t>郭素孜</t>
+  </si>
+  <si>
+    <t>et84tv2</t>
+  </si>
+  <si>
+    <t>p17w4</t>
+  </si>
+  <si>
+    <t>太平區中華國小</t>
+  </si>
+  <si>
+    <t>廖仲凱</t>
+  </si>
+  <si>
+    <t>陳丁嘉</t>
+  </si>
+  <si>
+    <t>f17a5</t>
+  </si>
+  <si>
+    <t>jkf85et5</t>
+  </si>
+  <si>
+    <t>太平區太平國小</t>
+  </si>
+  <si>
+    <t>黃雅萱</t>
+  </si>
+  <si>
+    <t>于中奎</t>
+  </si>
+  <si>
+    <t>cd2j6</t>
+  </si>
+  <si>
+    <t>bj33t5</t>
   </si>
   <si>
     <t>太平區東平國小</t>
   </si>
   <si>
-    <t>歐丞鎧</t>
+    <t>胡致嘉</t>
   </si>
   <si>
     <t>余忠鴻</t>
   </si>
   <si>
-    <t>bj98c8</t>
-  </si>
-  <si>
-    <t>an55s8</t>
+    <t>cd47my7</t>
+  </si>
+  <si>
+    <t>d43yg4</t>
+  </si>
+  <si>
+    <t>太平區新光國小</t>
+  </si>
+  <si>
+    <t>林定宇</t>
+  </si>
+  <si>
+    <t>余佳芳</t>
+  </si>
+  <si>
+    <t>rs12et4</t>
+  </si>
+  <si>
+    <t>pe27dx4</t>
   </si>
   <si>
     <t>北屯區文心國小</t>
   </si>
   <si>
+    <t>李佳恩</t>
+  </si>
+  <si>
+    <t>林義哲</t>
+  </si>
+  <si>
+    <t>m3cd8</t>
+  </si>
+  <si>
+    <t>w75xb5</t>
+  </si>
+  <si>
     <t>劉勝驊</t>
   </si>
   <si>
-    <t>李玉貞</t>
-  </si>
-  <si>
-    <t>rs70dx9</t>
-  </si>
-  <si>
-    <t>t70f3</t>
+    <t>dx97w4</t>
+  </si>
+  <si>
+    <t>jk48rs6</t>
   </si>
   <si>
     <t>北屯區文昌國小</t>
   </si>
   <si>
-    <t>張博堯</t>
+    <t>徐睿志</t>
   </si>
   <si>
     <t>晋鳳山</t>
   </si>
   <si>
-    <t>jk2x3</t>
-  </si>
-  <si>
-    <t>bj75h7</t>
-  </si>
-  <si>
-    <t>北屯區北屯國小</t>
-  </si>
-  <si>
-    <t>余有威</t>
-  </si>
-  <si>
-    <t>王真麟</t>
-  </si>
-  <si>
-    <t>yg2et8</t>
-  </si>
-  <si>
-    <t>t37cd2</t>
-  </si>
-  <si>
-    <t>賴貴棠</t>
-  </si>
-  <si>
-    <t>etv82e3</t>
-  </si>
-  <si>
-    <t>tv91y3</t>
-  </si>
-  <si>
-    <t>北屯區東光國小</t>
-  </si>
-  <si>
-    <t>邱翊晴</t>
-  </si>
-  <si>
-    <t>林亮君</t>
-  </si>
-  <si>
-    <t>d56w8</t>
-  </si>
-  <si>
-    <t>nc11wh2</t>
+    <t>b96w5</t>
+  </si>
+  <si>
+    <t>wh83d3</t>
   </si>
   <si>
     <t>北屯區建功國小</t>
   </si>
   <si>
-    <t>林苡辰</t>
+    <t>賴家億</t>
   </si>
   <si>
     <t>盧建宏</t>
   </si>
   <si>
-    <t>sm52f5</t>
-  </si>
-  <si>
-    <t>tv78x7</t>
-  </si>
-  <si>
-    <t>許坤融</t>
-  </si>
-  <si>
-    <t>whp74e8</t>
-  </si>
-  <si>
-    <t>xb16n6</t>
+    <t>hp93b3</t>
+  </si>
+  <si>
+    <t>cdx37d6</t>
   </si>
   <si>
     <t>北區立人國小</t>
   </si>
   <si>
-    <t>許洺睿</t>
+    <t>萬月甄</t>
   </si>
   <si>
     <t>呂欣芸</t>
   </si>
   <si>
-    <t>a68y6</t>
-  </si>
-  <si>
-    <t>n1d4</t>
+    <t>p72g9</t>
+  </si>
+  <si>
+    <t>kfr35an6</t>
   </si>
   <si>
     <t>北區賴厝國小</t>
@@ -240,169 +261,163 @@
     <t>張字和</t>
   </si>
   <si>
-    <t>xb24e4</t>
-  </si>
-  <si>
-    <t>et42p9</t>
-  </si>
-  <si>
-    <t>裘承儒</t>
-  </si>
-  <si>
-    <t>cd91cd7</t>
-  </si>
-  <si>
-    <t>j60e9</t>
-  </si>
-  <si>
-    <t>何師奇</t>
-  </si>
-  <si>
-    <t>cdx44n6</t>
-  </si>
-  <si>
-    <t>rs94r7</t>
-  </si>
-  <si>
-    <t>何芊樺</t>
-  </si>
-  <si>
-    <t>tv35an2</t>
-  </si>
-  <si>
-    <t>f49nc8</t>
+    <t>etv36tv6</t>
+  </si>
+  <si>
+    <t>ncd69f4</t>
+  </si>
+  <si>
+    <t>劉致霆</t>
+  </si>
+  <si>
+    <t>r47v2</t>
+  </si>
+  <si>
+    <t>h7pe7</t>
+  </si>
+  <si>
+    <t>張甄庭</t>
+  </si>
+  <si>
+    <t>x10g7</t>
+  </si>
+  <si>
+    <t>myg16g6</t>
+  </si>
+  <si>
+    <t>周玉玲</t>
+  </si>
+  <si>
+    <t>yg62wh5</t>
+  </si>
+  <si>
+    <t>w40tv5</t>
+  </si>
+  <si>
+    <t>外埔區外埔國小</t>
+  </si>
+  <si>
+    <t>林育豪</t>
+  </si>
+  <si>
+    <t>陳文鴻</t>
+  </si>
+  <si>
+    <t>yg6b2</t>
+  </si>
+  <si>
+    <t>my78b8</t>
   </si>
   <si>
     <t>后里區內埔國小</t>
   </si>
   <si>
-    <t>張芯瑜</t>
+    <t>張斯甯</t>
   </si>
   <si>
     <t>陳進志</t>
   </si>
   <si>
-    <t>v7g3</t>
-  </si>
-  <si>
-    <t>e42rs8</t>
-  </si>
-  <si>
-    <t>李竑儀</t>
-  </si>
-  <si>
-    <t>張育嘉</t>
-  </si>
-  <si>
-    <t>rsm11rs5</t>
-  </si>
-  <si>
-    <t>frs99jk5</t>
-  </si>
-  <si>
-    <t>蔡承翰</t>
-  </si>
-  <si>
-    <t>xb56v6</t>
-  </si>
-  <si>
-    <t>bjk64hp9</t>
-  </si>
-  <si>
-    <t>張斯甯</t>
-  </si>
-  <si>
-    <t>xb83v8</t>
-  </si>
-  <si>
-    <t>dxb32s6</t>
-  </si>
-  <si>
-    <t>西屯區上安國小</t>
-  </si>
-  <si>
-    <t>蔡銘栩</t>
-  </si>
-  <si>
-    <t>陳美君</t>
-  </si>
-  <si>
-    <t>cd64b6</t>
-  </si>
-  <si>
-    <t>t10y9</t>
-  </si>
-  <si>
-    <t>東區力行國小</t>
-  </si>
-  <si>
-    <t>曹富翔</t>
-  </si>
-  <si>
-    <t>林景盛</t>
-  </si>
-  <si>
-    <t>kf23cd6</t>
-  </si>
-  <si>
-    <t>g5k7</t>
+    <t>b42tv2</t>
+  </si>
+  <si>
+    <t>tv93c3</t>
+  </si>
+  <si>
+    <t>羅宥鈞</t>
+  </si>
+  <si>
+    <t>bj61n3</t>
+  </si>
+  <si>
+    <t>sm55e2</t>
+  </si>
+  <si>
+    <t>西區大勇國小</t>
+  </si>
+  <si>
+    <t>陳谷桓</t>
+  </si>
+  <si>
+    <t>鄭榮頌</t>
+  </si>
+  <si>
+    <t>sm31my7</t>
+  </si>
+  <si>
+    <t>y89d5</t>
+  </si>
+  <si>
+    <t>西區忠明國小</t>
+  </si>
+  <si>
+    <t>吳叔慎</t>
+  </si>
+  <si>
+    <t>張詩岳</t>
+  </si>
+  <si>
+    <t>dx21b6</t>
+  </si>
+  <si>
+    <t>b79t6</t>
   </si>
   <si>
     <t>東區成功國小</t>
   </si>
   <si>
-    <t>張宇翔</t>
+    <t>丁燦湧</t>
   </si>
   <si>
     <t>温山明</t>
   </si>
   <si>
-    <t>h81m5</t>
-  </si>
-  <si>
-    <t>my35g2</t>
-  </si>
-  <si>
-    <t>林宸瑄</t>
-  </si>
-  <si>
-    <t>ygw44gw4</t>
-  </si>
-  <si>
-    <t>hpe65v5</t>
+    <t>jkf54fr3</t>
+  </si>
+  <si>
+    <t>cd62sm5</t>
+  </si>
+  <si>
+    <t>吳耀弘</t>
+  </si>
+  <si>
+    <t>hp76my3</t>
+  </si>
+  <si>
+    <t>kf74b4</t>
   </si>
   <si>
     <t>南屯區大新國小</t>
   </si>
   <si>
-    <t>蘇筠軒</t>
+    <t>林智偉</t>
   </si>
   <si>
     <t>巫裕雄</t>
   </si>
   <si>
-    <t>rs81d6</t>
-  </si>
-  <si>
-    <t>n67y5</t>
-  </si>
-  <si>
-    <t>林智偉</t>
-  </si>
-  <si>
-    <t>yg67wh4</t>
-  </si>
-  <si>
-    <t>yg4dx5</t>
+    <t>rs61sm7</t>
+  </si>
+  <si>
+    <t>dx11h8</t>
+  </si>
+  <si>
+    <t>巫芯妤</t>
+  </si>
+  <si>
+    <t>f24g3</t>
+  </si>
+  <si>
+    <t>gw5rs2</t>
   </si>
   <si>
     <t>楊育棠</t>
   </si>
   <si>
-    <t>et18t4</t>
-  </si>
-  <si>
-    <t>rs43t2</t>
+    <t>yg79my5</t>
+  </si>
+  <si>
+    <t>rs47n5</t>
   </si>
   <si>
     <t>南屯區大墩國小</t>
@@ -411,202 +426,214 @@
     <t>陳廷瑜</t>
   </si>
   <si>
-    <t>呂岳霖</t>
-  </si>
-  <si>
-    <t>jk66my6</t>
-  </si>
-  <si>
-    <t>an94dx8</t>
-  </si>
-  <si>
-    <t>南屯區東興國小</t>
-  </si>
-  <si>
-    <t>羅少希</t>
-  </si>
-  <si>
-    <t>楊詠翔</t>
-  </si>
-  <si>
-    <t>d67n1</t>
-  </si>
-  <si>
-    <t>f66v1</t>
-  </si>
-  <si>
-    <t>邱竣義</t>
-  </si>
-  <si>
-    <t>smy13s8</t>
-  </si>
-  <si>
-    <t>c54t6</t>
+    <t>賴明珠</t>
+  </si>
+  <si>
+    <t>h10g5</t>
+  </si>
+  <si>
+    <t>pet19sm4</t>
+  </si>
+  <si>
+    <t>南屯區文山國小</t>
+  </si>
+  <si>
+    <t>廖家均</t>
+  </si>
+  <si>
+    <t>柯晁富</t>
+  </si>
+  <si>
+    <t>rsm62r4</t>
+  </si>
+  <si>
+    <t>r49f2</t>
   </si>
   <si>
     <t>南屯區南屯國小</t>
   </si>
   <si>
-    <t>翁子涵</t>
+    <t>孫沅</t>
+  </si>
+  <si>
+    <t>雷志明</t>
+  </si>
+  <si>
+    <t>sm79yg5</t>
+  </si>
+  <si>
+    <t>g9x4</t>
+  </si>
+  <si>
+    <t>謝沛妤</t>
+  </si>
+  <si>
+    <t>陳韻如</t>
+  </si>
+  <si>
+    <t>rsm40h8</t>
+  </si>
+  <si>
+    <t>f10w6</t>
+  </si>
+  <si>
+    <t>莊竣凱</t>
   </si>
   <si>
     <t>陳美菁</t>
   </si>
   <si>
-    <t>hp85k3</t>
-  </si>
-  <si>
-    <t>rs52h3</t>
-  </si>
-  <si>
-    <t>林立詮</t>
-  </si>
-  <si>
-    <t>rs31bj3</t>
-  </si>
-  <si>
-    <t>h87v3</t>
-  </si>
-  <si>
-    <t>南區和平國小</t>
-  </si>
-  <si>
-    <t>張宇傑</t>
-  </si>
-  <si>
-    <t>林明皇</t>
-  </si>
-  <si>
-    <t>s54t6</t>
-  </si>
-  <si>
-    <t>gwh81f5</t>
+    <t>my35nc9</t>
+  </si>
+  <si>
+    <t>pe53m8</t>
+  </si>
+  <si>
+    <t>南屯區鎮平國小</t>
+  </si>
+  <si>
+    <t>何建錩</t>
+  </si>
+  <si>
+    <t>黃秀惠</t>
+  </si>
+  <si>
+    <t>anc68jk3</t>
+  </si>
+  <si>
+    <t>dxb82pe4</t>
   </si>
   <si>
     <t>南區樹義國小</t>
   </si>
   <si>
+    <t>陳姿羽</t>
+  </si>
+  <si>
+    <t>王佩芬</t>
+  </si>
+  <si>
+    <t>tv77k1</t>
+  </si>
+  <si>
+    <t>jkf71y6</t>
+  </si>
+  <si>
+    <t>沈煒築</t>
+  </si>
+  <si>
+    <t>jkf81my1</t>
+  </si>
+  <si>
+    <t>m38nc2</t>
+  </si>
+  <si>
+    <t>張紹宇</t>
+  </si>
+  <si>
+    <t>hp58sm9</t>
+  </si>
+  <si>
+    <t>wh72gw6</t>
+  </si>
+  <si>
     <t>陳詩婷</t>
   </si>
   <si>
-    <t>王佩芬</t>
-  </si>
-  <si>
-    <t>f47y2</t>
-  </si>
-  <si>
-    <t>xbj38k3</t>
-  </si>
-  <si>
-    <t>江欣諭</t>
-  </si>
-  <si>
-    <t>pe32m7</t>
-  </si>
-  <si>
-    <t>d49s8</t>
-  </si>
-  <si>
-    <t>李宇朋</t>
-  </si>
-  <si>
-    <t>hpe39w8</t>
-  </si>
-  <si>
-    <t>jkf37g5</t>
-  </si>
-  <si>
-    <t>陳姿羽</t>
-  </si>
-  <si>
-    <t>bjk3cd4</t>
-  </si>
-  <si>
-    <t>sm13et1</t>
-  </si>
-  <si>
-    <t>烏日區九德國小</t>
-  </si>
-  <si>
-    <t>陳竣謙</t>
-  </si>
-  <si>
-    <t>洪盟財</t>
-  </si>
-  <si>
-    <t>an85gw7</t>
-  </si>
-  <si>
-    <t>jkf58x8</t>
-  </si>
-  <si>
-    <t>神岡區社口國小</t>
-  </si>
-  <si>
-    <t>游承憲</t>
-  </si>
-  <si>
-    <t>黃子欣</t>
-  </si>
-  <si>
-    <t>tv28b5</t>
-  </si>
-  <si>
-    <t>f45e8</t>
-  </si>
-  <si>
-    <t>潭子區潭陽國小</t>
-  </si>
-  <si>
-    <t>羅珮慈</t>
-  </si>
-  <si>
-    <t>蔡育忠</t>
-  </si>
-  <si>
-    <t>t19cd7</t>
-  </si>
-  <si>
-    <t>cdx62yg5</t>
-  </si>
-  <si>
-    <t>潭子區頭家國小</t>
-  </si>
-  <si>
-    <t>顏齊安</t>
-  </si>
-  <si>
-    <t>丁昱文</t>
-  </si>
-  <si>
-    <t>xb95t7</t>
-  </si>
-  <si>
-    <t>an82hp9</t>
-  </si>
-  <si>
-    <t>許庭豪</t>
-  </si>
-  <si>
-    <t>bj69r8</t>
-  </si>
-  <si>
-    <t>tv48s1</t>
-  </si>
-  <si>
-    <t>豐原區瑞穗國小</t>
-  </si>
-  <si>
-    <t>陳茂澤</t>
-  </si>
-  <si>
-    <t>王俐婷</t>
-  </si>
-  <si>
-    <t>v70gw4</t>
-  </si>
-  <si>
-    <t>f77gw2</t>
+    <t>gw39bj6</t>
+  </si>
+  <si>
+    <t>v10tv5</t>
+  </si>
+  <si>
+    <t>神岡區神岡國小</t>
+  </si>
+  <si>
+    <t>詹思玥</t>
+  </si>
+  <si>
+    <t>林奎光</t>
+  </si>
+  <si>
+    <t>k33fr6</t>
+  </si>
+  <si>
+    <t>v3g2</t>
+  </si>
+  <si>
+    <t>梧棲區中正國小</t>
+  </si>
+  <si>
+    <t>魏凱傑</t>
+  </si>
+  <si>
+    <t>趙建硯</t>
+  </si>
+  <si>
+    <t>t76p6</t>
+  </si>
+  <si>
+    <t>pe44m8</t>
+  </si>
+  <si>
+    <t>梧棲區梧棲國小</t>
+  </si>
+  <si>
+    <t>周心愉</t>
+  </si>
+  <si>
+    <t>林子群</t>
+  </si>
+  <si>
+    <t>dx7k9</t>
+  </si>
+  <si>
+    <t>p95xb7</t>
+  </si>
+  <si>
+    <t>清水區西寧國小</t>
+  </si>
+  <si>
+    <t>洪至宥</t>
+  </si>
+  <si>
+    <t>丁浩展</t>
+  </si>
+  <si>
+    <t>bj57e6</t>
+  </si>
+  <si>
+    <t>a54cd8</t>
+  </si>
+  <si>
+    <t>龍井區龍井國小</t>
+  </si>
+  <si>
+    <t>劉錦億</t>
+  </si>
+  <si>
+    <t>趙子如</t>
+  </si>
+  <si>
+    <t>gw85y5</t>
+  </si>
+  <si>
+    <t>xb30fr7</t>
+  </si>
+  <si>
+    <t>豐原區豐村國小</t>
+  </si>
+  <si>
+    <t>林勇銓</t>
+  </si>
+  <si>
+    <t>吳宗彥</t>
+  </si>
+  <si>
+    <t>kf21g5</t>
+  </si>
+  <si>
+    <t>fr64b8</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1611,7 +1638,7 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1691,19 +1718,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1714,13 +1741,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>24</v>
@@ -1737,13 +1764,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -1852,19 +1879,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1875,19 +1902,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1898,13 +1925,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>60</v>
@@ -1921,19 +1948,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1944,19 +1971,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1967,19 +1994,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1990,19 +2017,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2013,19 +2040,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2036,19 +2063,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2059,19 +2086,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2082,19 +2109,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2105,19 +2132,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2128,19 +2155,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2151,19 +2178,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2174,19 +2201,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2197,19 +2224,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2220,19 +2247,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2243,19 +2270,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2266,19 +2293,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2289,19 +2316,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2312,19 +2339,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2335,19 +2362,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2358,19 +2385,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2381,19 +2408,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2404,19 +2431,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2427,19 +2454,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2450,19 +2477,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2473,19 +2500,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2496,19 +2523,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2519,19 +2546,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2542,19 +2569,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2565,19 +2592,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2588,19 +2615,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2611,19 +2638,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2634,19 +2661,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2657,19 +2684,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
